--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityMedication</t>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/FrSimpleQuantityMedication</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="144">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,169 +78,172 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>simple quantity datatype requiring a UCUM or EDQM unit</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/SimpleQuantity</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>simple quantity datatype requiring a UCUM or EDQM unit</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>complex-type</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SimpleQuantity</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Derivation</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>0</t>
@@ -950,863 +953,863 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$9</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -45,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>SimpleQuantity with UCUM or EDQM quantity unit</t>
+    <t>SimpleQuantity with UCUM or EDQM codes or code not used</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>simple quantity datatype requiring a UCUM or EDQM unit</t>
+    <t>simple quantity datatype requiring a UCUM or EDQM code or no code (only unti)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,10 +253,10 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator) with UCUM or EDQM unit</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity. The unit SHALL be a UCUM or EDQM code.</t>
+    <t>A fixed quantity (no comparator) with UCUM or EDQM code or no code</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity. The code SHALL be a UCUM or EDQM code if used.</t>
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use explicitely excludes the use of the simpleQuantity "comparator" element.</t>
@@ -270,7 +267,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:unit system SHALL be UCUM or EDQM {system = `http://standardterms.edqm.eu` or system = `http://unitsofmeasure.org`}</t>
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:system SHALL be UCUM or EDQM if code is used {code.exists() implies (system.exists() and (system = 'http://standardterms.edqm.eu' or system = 'http://unitsofmeasure.org'))}fr-med-smpl-quant-2:system SHALL not be used if code is not used {code.empty() implies system.empty()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
@@ -432,10 +429,10 @@
     <t>System that defines coded unit form</t>
   </si>
   <si>
-    <t>UCUM or EDQM requiered for the identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>UCUM or EDQM requiered.</t>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t xml:space="preserve">qty-3
@@ -454,7 +451,7 @@
     <t>A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
-    <t>UCUM or EDQM code required.</t>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
@@ -589,21 +586,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -944,7 +926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1052,7 +1034,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -1158,7 +1140,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -1266,7 +1248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>104</v>
       </c>
@@ -1376,7 +1358,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>114</v>
       </c>
@@ -1486,7 +1468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>125</v>
       </c>
@@ -1594,7 +1576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>131</v>
       </c>
@@ -1607,13 +1589,13 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>75</v>
@@ -1702,7 +1684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>138</v>
       </c>
@@ -1715,7 +1697,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>
@@ -1813,24 +1795,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL9">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI8">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/main/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
